--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -16853,7 +16853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16974,7 +16974,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -17009,7 +17009,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -17044,7 +17044,7 @@
         <v>30</v>
       </c>
       <c r="K7" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -17079,7 +17079,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -17114,7 +17114,7 @@
         <v>50</v>
       </c>
       <c r="K9" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -17149,7 +17149,7 @@
         <v>60</v>
       </c>
       <c r="K10" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -17184,7 +17184,7 @@
         <v>70</v>
       </c>
       <c r="K11" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -17219,7 +17219,7 @@
         <v>80</v>
       </c>
       <c r="K12" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -17254,7 +17254,7 @@
         <v>90</v>
       </c>
       <c r="K13" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -17289,7 +17289,7 @@
         <v>100</v>
       </c>
       <c r="K14" s="7">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16853,7 +16853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -16974,7 +16974,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="7">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16853,7 +16853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16950,7 +16950,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16853,7 +16853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16974,7 +16974,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="7">
-        <v>800</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -12530,7 +12530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -16859,7 +16859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L7" sqref="L7"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16962,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -16977,13 +16977,13 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
         <v>100</v>
       </c>
       <c r="J5" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7">
         <v>10</v>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16855,11 +16855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:O14"/>
+  <dimension ref="A3:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16962,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -16977,361 +16977,19 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J5" s="7">
         <v>10</v>
       </c>
       <c r="K5" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7">
         <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>20000</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>200</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>200</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>200</v>
-      </c>
-      <c r="J6" s="7">
-        <v>6</v>
-      </c>
-      <c r="K6" s="7">
-        <v>20</v>
-      </c>
-      <c r="L6" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>300</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>300</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>300</v>
-      </c>
-      <c r="J7" s="7">
-        <v>7</v>
-      </c>
-      <c r="K7" s="7">
-        <v>30</v>
-      </c>
-      <c r="L7" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7">
-        <v>40000</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7">
-        <v>400</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>400</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>400</v>
-      </c>
-      <c r="J8" s="7">
-        <v>8</v>
-      </c>
-      <c r="K8" s="7">
-        <v>40</v>
-      </c>
-      <c r="L8" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>500</v>
-      </c>
-      <c r="F9" s="7">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7">
-        <v>500</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5</v>
-      </c>
-      <c r="I9" s="7">
-        <v>500</v>
-      </c>
-      <c r="J9" s="7">
-        <v>9</v>
-      </c>
-      <c r="K9" s="7">
-        <v>50</v>
-      </c>
-      <c r="L9" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B10" s="7">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7">
-        <v>60000</v>
-      </c>
-      <c r="D10" s="7">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7">
-        <v>600</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7">
-        <v>600</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>600</v>
-      </c>
-      <c r="J10" s="7">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7">
-        <v>60</v>
-      </c>
-      <c r="L10" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B11" s="7">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7">
-        <v>70000</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7">
-        <v>700</v>
-      </c>
-      <c r="F11" s="7">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7">
-        <v>700</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>700</v>
-      </c>
-      <c r="J11" s="7">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7">
-        <v>70</v>
-      </c>
-      <c r="L11" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B12" s="7">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7">
-        <v>80000</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
-        <v>800</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8</v>
-      </c>
-      <c r="G12" s="7">
-        <v>800</v>
-      </c>
-      <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>800</v>
-      </c>
-      <c r="J12" s="7">
-        <v>12</v>
-      </c>
-      <c r="K12" s="7">
-        <v>80</v>
-      </c>
-      <c r="L12" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B13" s="7">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7">
-        <v>90000</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7">
-        <v>900</v>
-      </c>
-      <c r="F13" s="7">
-        <v>9</v>
-      </c>
-      <c r="G13" s="7">
-        <v>900</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>900</v>
-      </c>
-      <c r="J13" s="7">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="7">
-        <v>1003</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>100000</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="7">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="7">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="7">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7">
-        <v>100</v>
-      </c>
-      <c r="L14" s="7">
-        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16859,7 +16859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16962,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -16977,13 +16977,13 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
         <v>10</v>
       </c>
       <c r="J5" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7">
         <v>100</v>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16859,7 +16859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16962,10 +16962,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7">
         <v>100</v>
@@ -16977,10 +16977,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J5" s="7">
         <v>100</v>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16859,7 +16859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16977,7 +16977,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
         <v>30</v>
@@ -16989,7 +16989,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="7">
-        <v>400</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16859,7 +16859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16962,10 +16962,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7">
         <v>100</v>
@@ -16977,7 +16977,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
         <v>30</v>

--- a/Client/配置表/excels/PlayerAttrBase.xlsx
+++ b/Client/配置表/excels/PlayerAttrBase.xlsx
@@ -16859,7 +16859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16977,7 +16977,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
         <v>30</v>
